--- a/Code/Results/Cases/Case_0_203/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_203/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.056445883834741</v>
+        <v>4.913690000476793</v>
       </c>
       <c r="D2">
-        <v>2.245313020206644</v>
+        <v>4.250606414976814</v>
       </c>
       <c r="E2">
-        <v>5.572545809514861</v>
+        <v>10.09188513958596</v>
       </c>
       <c r="F2">
-        <v>44.99345089462505</v>
+        <v>53.72696604482505</v>
       </c>
       <c r="G2">
-        <v>2.10557877488564</v>
+        <v>3.766331770397462</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.626624906864657</v>
+        <v>9.793859989880813</v>
       </c>
       <c r="K2">
-        <v>25.02055347829736</v>
+        <v>24.23903104987336</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.15425867280748</v>
+        <v>22.31489567950007</v>
       </c>
       <c r="N2">
-        <v>14.6502550524662</v>
+        <v>22.0636284640353</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.542280441757716</v>
+        <v>4.761077490840225</v>
       </c>
       <c r="D3">
-        <v>2.144240265332706</v>
+        <v>4.233886787091286</v>
       </c>
       <c r="E3">
-        <v>5.567928667967122</v>
+        <v>10.10962414166382</v>
       </c>
       <c r="F3">
-        <v>43.35406568395556</v>
+        <v>53.56573533160486</v>
       </c>
       <c r="G3">
-        <v>2.119572413437488</v>
+        <v>3.771080155468673</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.660778418152996</v>
+        <v>9.816219736785712</v>
       </c>
       <c r="K3">
-        <v>23.48500095809063</v>
+        <v>23.94251618050755</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.28944990082188</v>
+        <v>22.22319591387077</v>
       </c>
       <c r="N3">
-        <v>14.89125932767492</v>
+        <v>22.12693675646465</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.21194556733927</v>
+        <v>4.666623736927143</v>
       </c>
       <c r="D4">
-        <v>2.082486800424582</v>
+        <v>4.223408869024448</v>
       </c>
       <c r="E4">
-        <v>5.567110894123074</v>
+        <v>10.12148923093118</v>
       </c>
       <c r="F4">
-        <v>42.37214679147102</v>
+        <v>53.48050521123295</v>
       </c>
       <c r="G4">
-        <v>2.128310366666125</v>
+        <v>3.774143060359801</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.683907564148584</v>
+        <v>9.830944162554639</v>
       </c>
       <c r="K4">
-        <v>22.5176159524456</v>
+        <v>23.76608522142176</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.75464844468347</v>
+        <v>22.17228974937879</v>
       </c>
       <c r="N4">
-        <v>15.04347988574923</v>
+        <v>22.16782978745203</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.073558322532271</v>
+        <v>4.628012139395276</v>
       </c>
       <c r="D5">
-        <v>2.057355809313154</v>
+        <v>4.219085179588879</v>
       </c>
       <c r="E5">
-        <v>5.567271849336275</v>
+        <v>10.12656953481512</v>
       </c>
       <c r="F5">
-        <v>41.97824700691514</v>
+        <v>53.44924345338561</v>
       </c>
       <c r="G5">
-        <v>2.131912590123543</v>
+        <v>3.775428437910564</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.69386132661886</v>
+        <v>9.837195137229294</v>
       </c>
       <c r="K5">
-        <v>22.11740431945519</v>
+        <v>23.69568559819332</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.53593598073257</v>
+        <v>22.15291530638197</v>
       </c>
       <c r="N5">
-        <v>15.10656703980639</v>
+        <v>22.1850025741693</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.050348760448617</v>
+        <v>4.621595456038571</v>
       </c>
       <c r="D6">
-        <v>2.053183740321751</v>
+        <v>4.218363965723253</v>
       </c>
       <c r="E6">
-        <v>5.567328062486546</v>
+        <v>10.12742793702423</v>
       </c>
       <c r="F6">
-        <v>41.91321915296127</v>
+        <v>53.44426222586164</v>
       </c>
       <c r="G6">
-        <v>2.132513370084661</v>
+        <v>3.775644126486571</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.695545664752107</v>
+        <v>9.838248255553859</v>
       </c>
       <c r="K6">
-        <v>22.05059475230873</v>
+        <v>23.68408855273181</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.49957832180447</v>
+        <v>22.14978129508069</v>
       </c>
       <c r="N6">
-        <v>15.1171061757611</v>
+        <v>22.18788482427315</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.2100946233884</v>
+        <v>4.666103405062982</v>
       </c>
       <c r="D7">
-        <v>2.082147789661354</v>
+        <v>4.223350777009221</v>
       </c>
       <c r="E7">
-        <v>5.567111080284674</v>
+        <v>10.12155675234485</v>
       </c>
       <c r="F7">
-        <v>42.36680916969288</v>
+        <v>53.48006954504118</v>
       </c>
       <c r="G7">
-        <v>2.128358773760652</v>
+        <v>3.774160244499749</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.684039682360543</v>
+        <v>9.831027450045344</v>
       </c>
       <c r="K7">
-        <v>22.51224251482701</v>
+        <v>23.76512961911343</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.75170167946515</v>
+        <v>22.17202289510202</v>
       </c>
       <c r="N7">
-        <v>15.0443264358512</v>
+        <v>22.16805932623954</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.882140768275334</v>
+        <v>4.861263883446467</v>
       </c>
       <c r="D8">
-        <v>2.21037204255779</v>
+        <v>4.244885158430522</v>
       </c>
       <c r="E8">
-        <v>5.570526975710471</v>
+        <v>10.09779981350146</v>
       </c>
       <c r="F8">
-        <v>44.4230739356308</v>
+        <v>53.66852286096427</v>
       </c>
       <c r="G8">
-        <v>2.110376546967399</v>
+        <v>3.76793852184203</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.637943862838792</v>
+        <v>9.801363226879227</v>
       </c>
       <c r="K8">
-        <v>24.49626427346027</v>
+        <v>24.13567410896959</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.85695381866035</v>
+        <v>22.28216554352808</v>
       </c>
       <c r="N8">
-        <v>14.73246441890984</v>
+        <v>22.08503773845074</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.088546065648828</v>
+        <v>5.235279909434019</v>
       </c>
       <c r="D9">
-        <v>2.466534087488885</v>
+        <v>4.285457399882805</v>
       </c>
       <c r="E9">
-        <v>5.593883514747594</v>
+        <v>10.05891541343848</v>
       </c>
       <c r="F9">
-        <v>48.65357643759503</v>
+        <v>54.14675676735467</v>
       </c>
       <c r="G9">
-        <v>2.076026254417585</v>
+        <v>3.756899821110417</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.56541245022193</v>
+        <v>9.751075287851375</v>
       </c>
       <c r="K9">
-        <v>28.35250225710288</v>
+        <v>24.90325205544843</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.98924239074625</v>
+        <v>22.54033845147561</v>
       </c>
       <c r="N9">
-        <v>14.15540169123043</v>
+        <v>21.93826109186915</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.914259548344146</v>
+        <v>5.501411001707773</v>
       </c>
       <c r="D10">
-        <v>2.661466821120588</v>
+        <v>4.314292640577568</v>
       </c>
       <c r="E10">
-        <v>5.622232429859765</v>
+        <v>10.03501669476631</v>
       </c>
       <c r="F10">
-        <v>51.89417539332929</v>
+        <v>54.56338292459083</v>
       </c>
       <c r="G10">
-        <v>2.05095197588705</v>
+        <v>3.74948790024233</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.524188563102239</v>
+        <v>9.718914488851894</v>
       </c>
       <c r="K10">
-        <v>31.24402974929864</v>
+        <v>25.48700268046352</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.59332220872467</v>
+        <v>22.75475891359966</v>
       </c>
       <c r="N10">
-        <v>13.75434724870032</v>
+        <v>21.8401790754977</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.278661158950722</v>
+        <v>5.619986257944064</v>
       </c>
       <c r="D11">
-        <v>2.752702040503193</v>
+        <v>4.327207154887929</v>
       </c>
       <c r="E11">
-        <v>5.637833242085135</v>
+        <v>10.0251529862433</v>
       </c>
       <c r="F11">
-        <v>53.402670777788</v>
+        <v>54.76679851335318</v>
       </c>
       <c r="G11">
-        <v>2.039473900681896</v>
+        <v>3.746265442116415</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.508369992629975</v>
+        <v>9.705318722017015</v>
       </c>
       <c r="K11">
-        <v>32.52234083622796</v>
+        <v>25.75575204376558</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.47580731183159</v>
+        <v>22.85743575814604</v>
       </c>
       <c r="N11">
-        <v>13.57758612964461</v>
+        <v>21.79767429886429</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.415228007108059</v>
+        <v>5.664484962980232</v>
       </c>
       <c r="D12">
-        <v>2.787732567479822</v>
+        <v>4.332068981047115</v>
       </c>
       <c r="E12">
-        <v>5.644157262163094</v>
+        <v>10.02156235238552</v>
       </c>
       <c r="F12">
-        <v>53.97954735768648</v>
+        <v>54.84579333346834</v>
       </c>
       <c r="G12">
-        <v>2.035106390064822</v>
+        <v>3.745066474531093</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.502833528316039</v>
+        <v>9.700318791489881</v>
       </c>
       <c r="K12">
-        <v>33.00170452505465</v>
+        <v>25.85788703389455</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.80643460559609</v>
+        <v>22.89703274266678</v>
       </c>
       <c r="N12">
-        <v>13.5115582118611</v>
+        <v>21.78188268069226</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.38587588234523</v>
+        <v>5.654919972875859</v>
       </c>
       <c r="D13">
-        <v>2.780164633256816</v>
+        <v>4.331023164105757</v>
       </c>
       <c r="E13">
-        <v>5.642776267137394</v>
+        <v>10.02232923763905</v>
       </c>
       <c r="F13">
-        <v>53.85504185743003</v>
+        <v>54.82869349977783</v>
       </c>
       <c r="G13">
-        <v>2.036048137285033</v>
+        <v>3.745323748489116</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.504005166010399</v>
+        <v>9.701389015631815</v>
       </c>
       <c r="K13">
-        <v>32.89866299107339</v>
+        <v>25.83587567573252</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.73537834294844</v>
+        <v>22.88847338245444</v>
       </c>
       <c r="N13">
-        <v>13.52573636548063</v>
+        <v>21.78527016419927</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.289923942626299</v>
+        <v>5.623655515957146</v>
       </c>
       <c r="D14">
-        <v>2.755573635311385</v>
+        <v>4.327607710749027</v>
       </c>
       <c r="E14">
-        <v>5.638345005215568</v>
+        <v>10.02485468816654</v>
       </c>
       <c r="F14">
-        <v>53.45001277087707</v>
+        <v>54.77325826209407</v>
       </c>
       <c r="G14">
-        <v>2.039115072223414</v>
+        <v>3.746166376196153</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.507905211604496</v>
+        <v>9.704904400119158</v>
       </c>
       <c r="K14">
-        <v>32.56186866411051</v>
+        <v>25.76414796419056</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.50307664162417</v>
+        <v>22.86067922295789</v>
       </c>
       <c r="N14">
-        <v>13.57213515460188</v>
+        <v>21.79636901901079</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.230971287575654</v>
+        <v>5.604451365308312</v>
       </c>
       <c r="D15">
-        <v>2.740577437501281</v>
+        <v>4.325511935781762</v>
       </c>
       <c r="E15">
-        <v>5.635685841572647</v>
+        <v>10.02642041080072</v>
       </c>
       <c r="F15">
-        <v>53.2026806173769</v>
+        <v>54.73955757705596</v>
       </c>
       <c r="G15">
-        <v>2.040990571846416</v>
+        <v>3.746685280206227</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.510354214935749</v>
+        <v>9.70707700540088</v>
       </c>
       <c r="K15">
-        <v>32.35498025933804</v>
+        <v>25.72025747501105</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.36033680665409</v>
+        <v>22.84374696982597</v>
       </c>
       <c r="N15">
-        <v>13.60067716210253</v>
+        <v>21.80320698506027</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.89023477461858</v>
+        <v>5.493607768657553</v>
       </c>
       <c r="D16">
-        <v>2.655565102666184</v>
+        <v>4.313444612351144</v>
       </c>
       <c r="E16">
-        <v>5.621269544022152</v>
+        <v>10.03568155925021</v>
       </c>
       <c r="F16">
-        <v>51.79633740634969</v>
+        <v>54.55036612126969</v>
       </c>
       <c r="G16">
-        <v>2.051699779523226</v>
+        <v>3.749701485627103</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.525283988877697</v>
+        <v>9.719823796613973</v>
       </c>
       <c r="K16">
-        <v>31.15979407569976</v>
+        <v>25.46949553748966</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.53512775458671</v>
+        <v>22.74815014791763</v>
       </c>
       <c r="N16">
-        <v>13.76602042319965</v>
+        <v>21.84299939698698</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.678455803394012</v>
+        <v>5.424937613956811</v>
       </c>
       <c r="D17">
-        <v>2.604142415377824</v>
+        <v>4.305990147207281</v>
       </c>
       <c r="E17">
-        <v>5.613136450480146</v>
+        <v>10.04162084494986</v>
       </c>
       <c r="F17">
-        <v>50.94281321561447</v>
+        <v>54.43783954567294</v>
       </c>
       <c r="G17">
-        <v>2.058244122819004</v>
+        <v>3.751589948257134</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.535215513813941</v>
+        <v>9.727908282714171</v>
       </c>
       <c r="K17">
-        <v>30.41750228266327</v>
+        <v>25.31641286955775</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.08608353633521</v>
+        <v>22.69080404772764</v>
       </c>
       <c r="N17">
-        <v>13.86896395044858</v>
+        <v>21.86795208547366</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.555577175703155</v>
+        <v>5.385208472174677</v>
       </c>
       <c r="D18">
-        <v>2.574798357693516</v>
+        <v>4.301683417055528</v>
       </c>
       <c r="E18">
-        <v>5.608711212961745</v>
+        <v>10.04513186094279</v>
       </c>
       <c r="F18">
-        <v>50.4550648663098</v>
+        <v>54.37442678189001</v>
       </c>
       <c r="G18">
-        <v>2.062002250042215</v>
+        <v>3.752690200590159</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.541201891267488</v>
+        <v>9.732655636721214</v>
       </c>
       <c r="K18">
-        <v>29.98702371807464</v>
+        <v>25.22867041999407</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.85513661140094</v>
+        <v>22.6583049701739</v>
       </c>
       <c r="N18">
-        <v>13.92870209598092</v>
+        <v>21.88250310769888</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.513783700730073</v>
+        <v>5.371718496127227</v>
       </c>
       <c r="D19">
-        <v>2.564899855418254</v>
+        <v>4.300221932099054</v>
       </c>
       <c r="E19">
-        <v>5.607255543940505</v>
+        <v>10.04633694135071</v>
       </c>
       <c r="F19">
-        <v>50.29044947376905</v>
+        <v>54.3531821306707</v>
       </c>
       <c r="G19">
-        <v>2.06327395272478</v>
+        <v>3.753065146459279</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.543274953991524</v>
+        <v>9.734279740448681</v>
       </c>
       <c r="K19">
-        <v>29.84064731422126</v>
+        <v>25.19901789552094</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.77687136271079</v>
+        <v>22.6473853003602</v>
       </c>
       <c r="N19">
-        <v>13.94901673656056</v>
+        <v>21.88746399074402</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.701109394736458</v>
+        <v>5.432272010898012</v>
       </c>
       <c r="D20">
-        <v>2.609591589417235</v>
+        <v>4.306785662576161</v>
       </c>
       <c r="E20">
-        <v>5.613975894554942</v>
+        <v>10.04097877939318</v>
       </c>
       <c r="F20">
-        <v>51.0333392434464</v>
+        <v>54.44968287662309</v>
       </c>
       <c r="G20">
-        <v>2.057548159614424</v>
+        <v>3.751387464310291</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.534129711461573</v>
+        <v>9.727037599601426</v>
       </c>
       <c r="K20">
-        <v>30.49688190648844</v>
+        <v>25.33267773105113</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.12879409668395</v>
+        <v>22.69685861727137</v>
       </c>
       <c r="N20">
-        <v>13.85795024935421</v>
+        <v>21.86527524336997</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.318144340959353</v>
+        <v>5.632849924290055</v>
       </c>
       <c r="D21">
-        <v>2.762782513174407</v>
+        <v>4.328611684637275</v>
       </c>
       <c r="E21">
-        <v>5.639635033127326</v>
+        <v>10.02410898259585</v>
       </c>
       <c r="F21">
-        <v>53.56881966648731</v>
+        <v>54.78948785505917</v>
       </c>
       <c r="G21">
-        <v>2.038214904198638</v>
+        <v>3.745918298981973</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.506747082117296</v>
+        <v>9.703867818391771</v>
       </c>
       <c r="K21">
-        <v>32.66091543844867</v>
+        <v>25.78520696135773</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.57140183702019</v>
+        <v>22.86882381314174</v>
       </c>
       <c r="N21">
-        <v>13.55848119827024</v>
+        <v>21.79310076400989</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.71322312720223</v>
+        <v>5.761571445792005</v>
       </c>
       <c r="D22">
-        <v>2.865779936513702</v>
+        <v>4.342709682253185</v>
       </c>
       <c r="E22">
-        <v>5.658847854452858</v>
+        <v>10.01392589012266</v>
       </c>
       <c r="F22">
-        <v>55.2593029363328</v>
+        <v>55.02301081206592</v>
       </c>
       <c r="G22">
-        <v>2.025450590888044</v>
+        <v>3.742468006430158</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.491514058898468</v>
+        <v>9.689590439055268</v>
       </c>
       <c r="K22">
-        <v>34.04819390864537</v>
+        <v>26.08304811087873</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.52766395287953</v>
+        <v>22.98537187221203</v>
       </c>
       <c r="N22">
-        <v>13.36811699041318</v>
+        <v>21.74770271634655</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.503040438796615</v>
+        <v>5.693100751015079</v>
       </c>
       <c r="D23">
-        <v>2.810501069643526</v>
+        <v>4.335200378469827</v>
       </c>
       <c r="E23">
-        <v>5.648359709739131</v>
+        <v>10.01928386076176</v>
       </c>
       <c r="F23">
-        <v>54.35370456247054</v>
+        <v>54.89733974789046</v>
       </c>
       <c r="G23">
-        <v>2.032278999934353</v>
+        <v>3.744298186849687</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.499388641502163</v>
+        <v>9.697131439143382</v>
       </c>
       <c r="K23">
-        <v>33.31001263868632</v>
+        <v>25.92392461004582</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.01899600908364</v>
+        <v>22.92279538338115</v>
       </c>
       <c r="N23">
-        <v>13.46918960165112</v>
+        <v>21.77177029975314</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.690871221110612</v>
+        <v>5.428956904489306</v>
       </c>
       <c r="D24">
-        <v>2.607127342251697</v>
+        <v>4.306426075712056</v>
       </c>
       <c r="E24">
-        <v>5.61359560334602</v>
+        <v>10.0412687568071</v>
       </c>
       <c r="F24">
-        <v>50.99240327492378</v>
+        <v>54.44432451660776</v>
       </c>
       <c r="G24">
-        <v>2.057862817202833</v>
+        <v>3.75147896197071</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.534619743457903</v>
+        <v>9.727430925574874</v>
       </c>
       <c r="K24">
-        <v>30.46100602686036</v>
+        <v>25.32532354892247</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.10948618981773</v>
+        <v>22.69411988083036</v>
       </c>
       <c r="N24">
-        <v>13.86292782291426</v>
+        <v>21.86648480395364</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.773413972327189</v>
+        <v>5.135394539148786</v>
       </c>
       <c r="D25">
-        <v>2.396373482600846</v>
+        <v>4.274655080566814</v>
       </c>
       <c r="E25">
-        <v>5.585682792795358</v>
+        <v>10.06861274137934</v>
       </c>
       <c r="F25">
-        <v>47.48715371033905</v>
+        <v>54.00583310636294</v>
       </c>
       <c r="G25">
-        <v>2.085258452698347</v>
+        <v>3.759762730847575</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.583010345718558</v>
+        <v>9.763837643098928</v>
       </c>
       <c r="K25">
-        <v>27.25126259296557</v>
+        <v>24.69174482704283</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.41659563511909</v>
+        <v>22.46607399033259</v>
       </c>
       <c r="N25">
-        <v>14.30767054899913</v>
+        <v>21.9762539692537</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_203/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_203/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.913690000476793</v>
+        <v>7.056445883834607</v>
       </c>
       <c r="D2">
-        <v>4.250606414976814</v>
+        <v>2.24531302020671</v>
       </c>
       <c r="E2">
-        <v>10.09188513958596</v>
+        <v>5.572545809514976</v>
       </c>
       <c r="F2">
-        <v>53.72696604482505</v>
+        <v>44.99345089462494</v>
       </c>
       <c r="G2">
-        <v>3.766331770397462</v>
+        <v>2.105578774885771</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.793859989880813</v>
+        <v>5.626624906864624</v>
       </c>
       <c r="K2">
-        <v>24.23903104987336</v>
+        <v>25.02055347829735</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>22.31489567950007</v>
+        <v>18.15425867280745</v>
       </c>
       <c r="N2">
-        <v>22.0636284640353</v>
+        <v>14.65025505246611</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.761077490840225</v>
+        <v>6.542280441757731</v>
       </c>
       <c r="D3">
-        <v>4.233886787091286</v>
+        <v>2.144240265332378</v>
       </c>
       <c r="E3">
-        <v>10.10962414166382</v>
+        <v>5.56792866796695</v>
       </c>
       <c r="F3">
-        <v>53.56573533160486</v>
+        <v>43.35406568395565</v>
       </c>
       <c r="G3">
-        <v>3.771080155468673</v>
+        <v>2.119572413437355</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.816219736785712</v>
+        <v>5.660778418152965</v>
       </c>
       <c r="K3">
-        <v>23.94251618050755</v>
+        <v>23.48500095809064</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>22.22319591387077</v>
+        <v>17.28944990082193</v>
       </c>
       <c r="N3">
-        <v>22.12693675646465</v>
+        <v>14.89125932767502</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.666623736927143</v>
+        <v>6.211945567339383</v>
       </c>
       <c r="D4">
-        <v>4.223408869024448</v>
+        <v>2.082486800424391</v>
       </c>
       <c r="E4">
-        <v>10.12148923093118</v>
+        <v>5.567110894122889</v>
       </c>
       <c r="F4">
-        <v>53.48050521123295</v>
+        <v>42.37214679147102</v>
       </c>
       <c r="G4">
-        <v>3.774143060359801</v>
+        <v>2.128310366665995</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.830944162554639</v>
+        <v>5.683907564148491</v>
       </c>
       <c r="K4">
-        <v>23.76608522142176</v>
+        <v>22.51761595244561</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>22.17228974937879</v>
+        <v>16.75464844468345</v>
       </c>
       <c r="N4">
-        <v>22.16782978745203</v>
+        <v>15.04347988574928</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.628012139395276</v>
+        <v>6.073558322532478</v>
       </c>
       <c r="D5">
-        <v>4.219085179588879</v>
+        <v>2.05735580931283</v>
       </c>
       <c r="E5">
-        <v>10.12656953481512</v>
+        <v>5.56727184933616</v>
       </c>
       <c r="F5">
-        <v>53.44924345338561</v>
+        <v>41.97824700691488</v>
       </c>
       <c r="G5">
-        <v>3.775428437910564</v>
+        <v>2.131912590123942</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.837195137229294</v>
+        <v>5.693861326618892</v>
       </c>
       <c r="K5">
-        <v>23.69568559819332</v>
+        <v>22.11740431945518</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>22.15291530638197</v>
+        <v>16.53593598073252</v>
       </c>
       <c r="N5">
-        <v>22.1850025741693</v>
+        <v>15.10656703980625</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.621595456038571</v>
+        <v>6.050348760448601</v>
       </c>
       <c r="D6">
-        <v>4.218363965723253</v>
+        <v>2.053183740321691</v>
       </c>
       <c r="E6">
-        <v>10.12742793702423</v>
+        <v>5.567328062486483</v>
       </c>
       <c r="F6">
-        <v>53.44426222586164</v>
+        <v>41.91321915296131</v>
       </c>
       <c r="G6">
-        <v>3.775644126486571</v>
+        <v>2.132513370084524</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.838248255553859</v>
+        <v>5.695545664752105</v>
       </c>
       <c r="K6">
-        <v>23.68408855273181</v>
+        <v>22.05059475230875</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>22.14978129508069</v>
+        <v>16.49957832180447</v>
       </c>
       <c r="N6">
-        <v>22.18788482427315</v>
+        <v>15.11710617576113</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.666103405062982</v>
+        <v>6.210094623388511</v>
       </c>
       <c r="D7">
-        <v>4.223350777009221</v>
+        <v>2.082147789661228</v>
       </c>
       <c r="E7">
-        <v>10.12155675234485</v>
+        <v>5.56711108028479</v>
       </c>
       <c r="F7">
-        <v>53.48006954504118</v>
+        <v>42.36680916969252</v>
       </c>
       <c r="G7">
-        <v>3.774160244499749</v>
+        <v>2.128358773760788</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.831027450045344</v>
+        <v>5.68403968236066</v>
       </c>
       <c r="K7">
-        <v>23.76512961911343</v>
+        <v>22.51224251482699</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>22.17202289510202</v>
+        <v>16.75170167946509</v>
       </c>
       <c r="N7">
-        <v>22.16805932623954</v>
+        <v>15.04432643585106</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.861263883446467</v>
+        <v>6.882140768275315</v>
       </c>
       <c r="D8">
-        <v>4.244885158430522</v>
+        <v>2.210372042557912</v>
       </c>
       <c r="E8">
-        <v>10.09779981350146</v>
+        <v>5.570526975710465</v>
       </c>
       <c r="F8">
-        <v>53.66852286096427</v>
+        <v>44.42307393563079</v>
       </c>
       <c r="G8">
-        <v>3.76793852184203</v>
+        <v>2.110376546967399</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.801363226879227</v>
+        <v>5.637943862838759</v>
       </c>
       <c r="K8">
-        <v>24.13567410896959</v>
+        <v>24.49626427346025</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>22.28216554352808</v>
+        <v>17.85695381866035</v>
       </c>
       <c r="N8">
-        <v>22.08503773845074</v>
+        <v>14.7324644189098</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.235279909434019</v>
+        <v>8.088546065648734</v>
       </c>
       <c r="D9">
-        <v>4.285457399882805</v>
+        <v>2.466534087488959</v>
       </c>
       <c r="E9">
-        <v>10.05891541343848</v>
+        <v>5.593883514747529</v>
       </c>
       <c r="F9">
-        <v>54.14675676735467</v>
+        <v>48.65357643759504</v>
       </c>
       <c r="G9">
-        <v>3.756899821110417</v>
+        <v>2.076026254417722</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.751075287851375</v>
+        <v>5.565412450221817</v>
       </c>
       <c r="K9">
-        <v>24.90325205544843</v>
+        <v>28.35250225710285</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>22.54033845147561</v>
+        <v>19.98924239074623</v>
       </c>
       <c r="N9">
-        <v>21.93826109186915</v>
+        <v>14.1554016912305</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.501411001707773</v>
+        <v>8.914259548344173</v>
       </c>
       <c r="D10">
-        <v>4.314292640577568</v>
+        <v>2.661466821120454</v>
       </c>
       <c r="E10">
-        <v>10.03501669476631</v>
+        <v>5.622232429859731</v>
       </c>
       <c r="F10">
-        <v>54.56338292459083</v>
+        <v>51.89417539332938</v>
       </c>
       <c r="G10">
-        <v>3.74948790024233</v>
+        <v>2.050951975886922</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.718914488851894</v>
+        <v>5.524188563102298</v>
       </c>
       <c r="K10">
-        <v>25.48700268046352</v>
+        <v>31.24402974929868</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.75475891359966</v>
+        <v>21.59332220872471</v>
       </c>
       <c r="N10">
-        <v>21.8401790754977</v>
+        <v>13.75434724870037</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.619986257944064</v>
+        <v>9.278661158950564</v>
       </c>
       <c r="D11">
-        <v>4.327207154887929</v>
+        <v>2.752702040502995</v>
       </c>
       <c r="E11">
-        <v>10.0251529862433</v>
+        <v>5.637833242085149</v>
       </c>
       <c r="F11">
-        <v>54.76679851335318</v>
+        <v>53.4026707777878</v>
       </c>
       <c r="G11">
-        <v>3.746265442116415</v>
+        <v>2.03947390068189</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.705318722017015</v>
+        <v>5.508369992630006</v>
       </c>
       <c r="K11">
-        <v>25.75575204376558</v>
+        <v>32.5223408362279</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.85743575814604</v>
+        <v>22.47580731183156</v>
       </c>
       <c r="N11">
-        <v>21.79767429886429</v>
+        <v>13.5775861296446</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.664484962980232</v>
+        <v>9.415228007108087</v>
       </c>
       <c r="D12">
-        <v>4.332068981047115</v>
+        <v>2.78773256747988</v>
       </c>
       <c r="E12">
-        <v>10.02156235238552</v>
+        <v>5.644157262163161</v>
       </c>
       <c r="F12">
-        <v>54.84579333346834</v>
+        <v>53.97954735768648</v>
       </c>
       <c r="G12">
-        <v>3.745066474531093</v>
+        <v>2.035106390064952</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.700318791489881</v>
+        <v>5.502833528316065</v>
       </c>
       <c r="K12">
-        <v>25.85788703389455</v>
+        <v>33.00170452505472</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.89703274266678</v>
+        <v>22.80643460559614</v>
       </c>
       <c r="N12">
-        <v>21.78188268069226</v>
+        <v>13.51155821186099</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.654919972875859</v>
+        <v>9.38587588234523</v>
       </c>
       <c r="D13">
-        <v>4.331023164105757</v>
+        <v>2.780164633256761</v>
       </c>
       <c r="E13">
-        <v>10.02232923763905</v>
+        <v>5.642776267137284</v>
       </c>
       <c r="F13">
-        <v>54.82869349977783</v>
+        <v>53.85504185743013</v>
       </c>
       <c r="G13">
-        <v>3.745323748489116</v>
+        <v>2.036048137284892</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.701389015631815</v>
+        <v>5.504005166010404</v>
       </c>
       <c r="K13">
-        <v>25.83587567573252</v>
+        <v>32.89866299107345</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.88847338245444</v>
+        <v>22.7353783429485</v>
       </c>
       <c r="N13">
-        <v>21.78527016419927</v>
+        <v>13.52573636548063</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.623655515957146</v>
+        <v>9.289923942626341</v>
       </c>
       <c r="D14">
-        <v>4.327607710749027</v>
+        <v>2.75557363531107</v>
       </c>
       <c r="E14">
-        <v>10.02485468816654</v>
+        <v>5.63834500521541</v>
       </c>
       <c r="F14">
-        <v>54.77325826209407</v>
+        <v>53.45001277087709</v>
       </c>
       <c r="G14">
-        <v>3.746166376196153</v>
+        <v>2.039115072223146</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.704904400119158</v>
+        <v>5.507905211604553</v>
       </c>
       <c r="K14">
-        <v>25.76414796419056</v>
+        <v>32.5618686641106</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.86067922295789</v>
+        <v>22.50307664162426</v>
       </c>
       <c r="N14">
-        <v>21.79636901901079</v>
+        <v>13.57213515460184</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.604451365308312</v>
+        <v>9.230971287575638</v>
       </c>
       <c r="D15">
-        <v>4.325511935781762</v>
+        <v>2.740577437501094</v>
       </c>
       <c r="E15">
-        <v>10.02642041080072</v>
+        <v>5.635685841572761</v>
       </c>
       <c r="F15">
-        <v>54.73955757705596</v>
+        <v>53.20268061737702</v>
       </c>
       <c r="G15">
-        <v>3.746685280206227</v>
+        <v>2.040990571846277</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.70707700540088</v>
+        <v>5.510354214935812</v>
       </c>
       <c r="K15">
-        <v>25.72025747501105</v>
+        <v>32.35498025933815</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.84374696982597</v>
+        <v>22.36033680665416</v>
       </c>
       <c r="N15">
-        <v>21.80320698506027</v>
+        <v>13.6006771621025</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.493607768657553</v>
+        <v>8.890234774618563</v>
       </c>
       <c r="D16">
-        <v>4.313444612351144</v>
+        <v>2.655565102666115</v>
       </c>
       <c r="E16">
-        <v>10.03568155925021</v>
+        <v>5.621269544022108</v>
       </c>
       <c r="F16">
-        <v>54.55036612126969</v>
+        <v>51.79633740634962</v>
       </c>
       <c r="G16">
-        <v>3.749701485627103</v>
+        <v>2.051699779523226</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.719823796613973</v>
+        <v>5.525283988877692</v>
       </c>
       <c r="K16">
-        <v>25.46949553748966</v>
+        <v>31.15979407569966</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.74815014791763</v>
+        <v>21.53512775458665</v>
       </c>
       <c r="N16">
-        <v>21.84299939698698</v>
+        <v>13.76602042319976</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.424937613956811</v>
+        <v>8.678455803394067</v>
       </c>
       <c r="D17">
-        <v>4.305990147207281</v>
+        <v>2.604142415377825</v>
       </c>
       <c r="E17">
-        <v>10.04162084494986</v>
+        <v>5.613136450480104</v>
       </c>
       <c r="F17">
-        <v>54.43783954567294</v>
+        <v>50.9428132156144</v>
       </c>
       <c r="G17">
-        <v>3.751589948257134</v>
+        <v>2.058244122818877</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.727908282714171</v>
+        <v>5.53521551381389</v>
       </c>
       <c r="K17">
-        <v>25.31641286955775</v>
+        <v>30.41750228266324</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.69080404772764</v>
+        <v>21.0860835363352</v>
       </c>
       <c r="N17">
-        <v>21.86795208547366</v>
+        <v>13.86896395044854</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.385208472174677</v>
+        <v>8.55557717570311</v>
       </c>
       <c r="D18">
-        <v>4.301683417055528</v>
+        <v>2.574798357693461</v>
       </c>
       <c r="E18">
-        <v>10.04513186094279</v>
+        <v>5.608711212961691</v>
       </c>
       <c r="F18">
-        <v>54.37442678189001</v>
+        <v>50.4550648663098</v>
       </c>
       <c r="G18">
-        <v>3.752690200590159</v>
+        <v>2.062002250042344</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.732655636721214</v>
+        <v>5.541201891267545</v>
       </c>
       <c r="K18">
-        <v>25.22867041999407</v>
+        <v>29.98702371807479</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.6583049701739</v>
+        <v>20.85513661140094</v>
       </c>
       <c r="N18">
-        <v>21.88250310769888</v>
+        <v>13.92870209598084</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.371718496127227</v>
+        <v>8.513783700730073</v>
       </c>
       <c r="D19">
-        <v>4.300221932099054</v>
+        <v>2.564899855418061</v>
       </c>
       <c r="E19">
-        <v>10.04633694135071</v>
+        <v>5.607255543940449</v>
       </c>
       <c r="F19">
-        <v>54.3531821306707</v>
+        <v>50.29044947376901</v>
       </c>
       <c r="G19">
-        <v>3.753065146459279</v>
+        <v>2.063273952724645</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.734279740448681</v>
+        <v>5.543274953991606</v>
       </c>
       <c r="K19">
-        <v>25.19901789552094</v>
+        <v>29.84064731422121</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.6473853003602</v>
+        <v>20.77687136271077</v>
       </c>
       <c r="N19">
-        <v>21.88746399074402</v>
+        <v>13.94901673656063</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.432272010898012</v>
+        <v>8.701109394736442</v>
       </c>
       <c r="D20">
-        <v>4.306785662576161</v>
+        <v>2.609591589417165</v>
       </c>
       <c r="E20">
-        <v>10.04097877939318</v>
+        <v>5.613975894554893</v>
       </c>
       <c r="F20">
-        <v>54.44968287662309</v>
+        <v>51.03333924344638</v>
       </c>
       <c r="G20">
-        <v>3.751387464310291</v>
+        <v>2.057548159614419</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.727037599601426</v>
+        <v>5.534129711461612</v>
       </c>
       <c r="K20">
-        <v>25.33267773105113</v>
+        <v>30.49688190648852</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.69685861727137</v>
+        <v>21.12879409668395</v>
       </c>
       <c r="N20">
-        <v>21.86527524336997</v>
+        <v>13.85795024935413</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.632849924290055</v>
+        <v>9.318144340959178</v>
       </c>
       <c r="D21">
-        <v>4.328611684637275</v>
+        <v>2.762782513174081</v>
       </c>
       <c r="E21">
-        <v>10.02410898259585</v>
+        <v>5.639635033127179</v>
       </c>
       <c r="F21">
-        <v>54.78948785505917</v>
+        <v>53.56881966648736</v>
       </c>
       <c r="G21">
-        <v>3.745918298981973</v>
+        <v>2.038214904198246</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.703867818391771</v>
+        <v>5.506747082117326</v>
       </c>
       <c r="K21">
-        <v>25.78520696135773</v>
+        <v>32.66091543844867</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.86882381314174</v>
+        <v>22.57140183702021</v>
       </c>
       <c r="N21">
-        <v>21.79310076400989</v>
+        <v>13.55848119827025</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.761571445792005</v>
+        <v>9.713223127202228</v>
       </c>
       <c r="D22">
-        <v>4.342709682253185</v>
+        <v>2.86577993651357</v>
       </c>
       <c r="E22">
-        <v>10.01392589012266</v>
+        <v>5.658847854452797</v>
       </c>
       <c r="F22">
-        <v>55.02301081206592</v>
+        <v>55.25930293633281</v>
       </c>
       <c r="G22">
-        <v>3.742468006430158</v>
+        <v>2.025450590888041</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.689590439055268</v>
+        <v>5.491514058898502</v>
       </c>
       <c r="K22">
-        <v>26.08304811087873</v>
+        <v>34.0481939086453</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.98537187221203</v>
+        <v>23.52766395287949</v>
       </c>
       <c r="N22">
-        <v>21.74770271634655</v>
+        <v>13.36811699041318</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.693100751015079</v>
+        <v>9.503040438796704</v>
       </c>
       <c r="D23">
-        <v>4.335200378469827</v>
+        <v>2.810501069643329</v>
       </c>
       <c r="E23">
-        <v>10.01928386076176</v>
+        <v>5.648359709739199</v>
       </c>
       <c r="F23">
-        <v>54.89733974789046</v>
+        <v>54.3537045624704</v>
       </c>
       <c r="G23">
-        <v>3.744298186849687</v>
+        <v>2.032278999934221</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.697131439143382</v>
+        <v>5.499388641502216</v>
       </c>
       <c r="K23">
-        <v>25.92392461004582</v>
+        <v>33.3100126386861</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.92279538338115</v>
+        <v>23.01899600908352</v>
       </c>
       <c r="N23">
-        <v>21.77177029975314</v>
+        <v>13.46918960165119</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.428956904489306</v>
+        <v>8.690871221110642</v>
       </c>
       <c r="D24">
-        <v>4.306426075712056</v>
+        <v>2.607127342251963</v>
       </c>
       <c r="E24">
-        <v>10.0412687568071</v>
+        <v>5.613595603346002</v>
       </c>
       <c r="F24">
-        <v>54.44432451660776</v>
+        <v>50.99240327492378</v>
       </c>
       <c r="G24">
-        <v>3.75147896197071</v>
+        <v>2.057862817202957</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.727430925574874</v>
+        <v>5.534619743457795</v>
       </c>
       <c r="K24">
-        <v>25.32532354892247</v>
+        <v>30.46100602686044</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.69411988083036</v>
+        <v>21.10948618981772</v>
       </c>
       <c r="N24">
-        <v>21.86648480395364</v>
+        <v>13.86292782291424</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.135394539148786</v>
+        <v>7.773413972327272</v>
       </c>
       <c r="D25">
-        <v>4.274655080566814</v>
+        <v>2.396373482600841</v>
       </c>
       <c r="E25">
-        <v>10.06861274137934</v>
+        <v>5.585682792795297</v>
       </c>
       <c r="F25">
-        <v>54.00583310636294</v>
+        <v>47.48715371033907</v>
       </c>
       <c r="G25">
-        <v>3.759762730847575</v>
+        <v>2.085258452698219</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.763837643098928</v>
+        <v>5.583010345718523</v>
       </c>
       <c r="K25">
-        <v>24.69174482704283</v>
+        <v>27.25126259296558</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.46607399033259</v>
+        <v>19.41659563511909</v>
       </c>
       <c r="N25">
-        <v>21.9762539692537</v>
+        <v>14.30767054899916</v>
       </c>
       <c r="O25">
         <v>0</v>
